--- a/XLS_Info/Mytest.xlsx
+++ b/XLS_Info/Mytest.xlsx
@@ -431,7 +431,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773}</t>
+          <t>RU: 0.13378996424343773</t>
         </is>
       </c>
     </row>
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773}</t>
+          <t>RU: 0.13378996424343773</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773}</t>
+          <t>RU: 0.13378996424343773</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'US': 0.42332031286763167, 'DE': 0.11884706405818267}</t>
+          <t>US: 0.42332031286763167, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773}</t>
+          <t>RU: 0.13378996424343773</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'US': 0.42332031286763167, 'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>US: 0.42332031286763167, RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773}</t>
+          <t>RU: 0.13378996424343773</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'DE': 0.11884706405818267}</t>
+          <t>DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'US': 0.42332031286763167, 'DE': 0.11884706405818267}</t>
+          <t>US: 0.42332031286763167, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'US': 0.42332031286763167, 'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>US: 0.42332031286763167, RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'US': 0.42332031286763167, 'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>US: 0.42332031286763167, RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773}</t>
+          <t>RU: 0.13378996424343773</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'US': 0.42332031286763167, 'RU': 0.13378996424343773}</t>
+          <t>US: 0.42332031286763167, RU: 0.13378996424343773</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773}</t>
+          <t>RU: 0.13378996424343773</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{'US': 0.42332031286763167, 'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>US: 0.42332031286763167, RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{'US': 0.42332031286763167, 'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>US: 0.42332031286763167, RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773}</t>
+          <t>RU: 0.13378996424343773</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{'DE': 0.11884706405818267}</t>
+          <t>DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>{'US': 0.42332031286763167, 'DE': 0.11884706405818267}</t>
+          <t>US: 0.42332031286763167, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{'US': 0.6793370343034667}</t>
+          <t>US: 0.6793370343034667</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>{'RU': 0.13378996424343773, 'DE': 0.11884706405818267}</t>
+          <t>RU: 0.13378996424343773, DE: 0.11884706405818267</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>{'US': 0.6217852595642941}</t>
+          <t>US: 0.6217852595642941</t>
         </is>
       </c>
     </row>
